--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.75539628881467</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>1.868222954029575</v>
+        <v>0.2337905658324813</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>2.213911448916162</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>1.834695583582491</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>2.036523794057565</v>
+        <v>3.386383090739953</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>2.533533936850563</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>1.767835936772166</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>0.9068345406550105</v>
+        <v>0.984293482975751</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>2.088987486264915</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.074400434091016</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>1.170527987331438</v>
+        <v>3.612753212925401</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>1.212544822741002</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>0.9212998022035679</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>1.183248538087023</v>
+        <v>2.158838189283174</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>1.196776590518644</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>1.141837882844188</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>1.390416240251269</v>
+        <v>1.194058515117336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.4712609263772594</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>1.335361538769475</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>1.229058693031737</v>
+        <v>1.409662779709819</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>0.8783377572271434</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>1.202048372526998</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>1.202839932117894</v>
+        <v>2.372074663906587</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>2.29066283401107</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>2.677488680362305</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>2.144206113168812</v>
+        <v>4.595879021798321</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>4.109890522944348</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>2.466954516646402</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>1.557722995268374</v>
+        <v>4.034919509273061</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>1.336316831462692</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>1.401189216021326</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>2.269858007878178</v>
+        <v>0.02883756256675252</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>1.197912858979611</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>2.217567799050979</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>1.827057475403548</v>
+        <v>0.9262553939922924</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>1.727537197898665</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>2.139672475020404</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>2.435621895369477</v>
+        <v>2.928189816005666</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>3.647228437274408</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>2.100991693542231</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>1.224867235761695</v>
+        <v>3.673004547855219</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>2.777797690741424</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>0.8967077601845341</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>-1.719962984008072</v>
+        <v>1.579011422502852</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>0.6994919452575576</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>0.782207885866093</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>1.762511516035903</v>
+        <v>-2.087978868409623</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-1.432689847121871</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.1172571542027212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>1.508385007449875</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>2.033479419175133</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.4005252624873723</v>
+      <c r="E19">
+        <v>1.317145539573517</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>3.673004547855219</v>
+        <v>3.828814763561761</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>1.579011422502852</v>
+        <v>-5.123136062091282</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-2.087978868409623</v>
+        <v>0.3969573948624072</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.1172571542027212</v>
+        <v>0.1752798163574099</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>1.317145539573517</v>
+        <v>2.166483625738302</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.75539628881467</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>0.2337905658324813</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>2.213911448916162</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>3.386383090739953</v>
+        <v>3.386383090739975</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +448,13 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>2.533533936850563</v>
+        <v>2.533533936850585</v>
       </c>
       <c r="D4">
         <v>2010</v>
       </c>
       <c r="E4">
-        <v>0.984293482975751</v>
+        <v>0.9842934829757288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="E5">
-        <v>3.612753212925401</v>
+        <v>3.612753212925446</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +482,13 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>1.212544822741002</v>
+        <v>1.21254482274098</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>2.158838189283174</v>
+        <v>2.158838189283219</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="E7">
-        <v>1.194058515117336</v>
+        <v>1.194058515117313</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +516,13 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>0.4712609263772594</v>
+        <v>0.4712609263772816</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>1.409662779709819</v>
+        <v>1.409662779709797</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -565,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>4.595879021798321</v>
+        <v>4.595879021798344</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +567,7 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>4.109890522944348</v>
+        <v>4.109890522944326</v>
       </c>
       <c r="D11">
         <v>2017</v>
@@ -599,7 +590,7 @@
         <v>2018</v>
       </c>
       <c r="E12">
-        <v>0.02883756256675252</v>
+        <v>0.02883756256673031</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>0.9262553939922924</v>
+        <v>0.9262553939923146</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,7 +624,7 @@
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>2.928189816005666</v>
+        <v>2.928189816005689</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>3.828814763561761</v>
+        <v>3.828814763561783</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,7 +652,7 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>2.777797690741424</v>
+        <v>2.777797690741446</v>
       </c>
       <c r="D16">
         <v>2022</v>
@@ -695,13 +686,13 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-1.432689847121871</v>
+        <v>-1.432689847121826</v>
       </c>
       <c r="D18">
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.1752798163574099</v>
+        <v>0.1752798163574321</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +703,7 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>2.033479419175133</v>
+        <v>2.033479419175155</v>
       </c>
       <c r="D19">
         <v>2025</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>2.166483625738302</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>2.622852459381209</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>2.689750575689809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
